--- a/app/static/excel/attendance.xlsx
+++ b/app/static/excel/attendance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my Project\KKL-Attendance-System\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E0544A-189D-45FA-8AC3-0904B9F1ECEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D55A55-2BAD-482B-A85F-5D211C7BB4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
   <si>
     <t>emp_id</t>
   </si>
@@ -72,9 +72,6 @@
     <t>07:00</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>08:28</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>23:13</t>
   </si>
   <si>
-    <t>10A</t>
-  </si>
-  <si>
     <t>07:08</t>
   </si>
   <si>
@@ -99,18 +93,12 @@
     <t>18:21</t>
   </si>
   <si>
-    <t>12A</t>
-  </si>
-  <si>
     <t>17:01</t>
   </si>
   <si>
     <t>15:49</t>
   </si>
   <si>
-    <t>12B</t>
-  </si>
-  <si>
     <t>23:44</t>
   </si>
   <si>
@@ -619,6 +607,9 @@
   </si>
   <si>
     <t>05:39</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -628,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -650,6 +641,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -659,7 +656,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -682,11 +679,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -695,6 +722,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,8 +1136,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1117,8 +1150,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1131,8 +1164,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1145,7 +1178,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -1159,644 +1192,644 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="B7" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="B13" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
+      <c r="B14" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
+      <c r="B17" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>15</v>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
+      <c r="B27" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
+      <c r="B31" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>15</v>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>24</v>
+      <c r="B33" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
+      <c r="B34" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>24</v>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>15</v>
+      <c r="B37" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
+      <c r="B38" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>15</v>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
+      <c r="B41" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>15</v>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>24</v>
+      <c r="B43" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>20</v>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>27</v>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>24</v>
+      <c r="B47" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>24</v>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>20</v>
+      <c r="B49" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>24</v>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>27</v>
+      <c r="B51" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F51" s="3"/>
     </row>
@@ -1804,700 +1837,700 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>20</v>
+      <c r="B52" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
+      <c r="B53" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>27</v>
+      <c r="B54" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>20</v>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>27</v>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>20</v>
+      <c r="B57" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>20</v>
+      <c r="B58" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>20</v>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>38</v>
+      <c r="B60" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>24</v>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>38</v>
+      <c r="B62" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>24</v>
+      <c r="B63" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>4</v>
+      <c r="B64" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>38</v>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>27</v>
+      <c r="B66" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>10</v>
+      <c r="B67" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
+      <c r="B68" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
+      <c r="B69" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>4</v>
+      <c r="B70" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>20</v>
+      <c r="B71" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>20</v>
+      <c r="B72" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>20</v>
+      <c r="B73" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>7</v>
+      <c r="B74" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>15</v>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>10</v>
+      <c r="B76" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>24</v>
+      <c r="B77" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>4</v>
+      <c r="B78" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>20</v>
+      <c r="B79" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>27</v>
+      <c r="B80" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>20</v>
+      <c r="B81" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>24</v>
+      <c r="B82" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>10</v>
+      <c r="B84" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>27</v>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>15</v>
+      <c r="B86" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>4</v>
+      <c r="B87" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>15</v>
+      <c r="B88" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>27</v>
+      <c r="B89" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>4</v>
+      <c r="B90" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
+      <c r="B91" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>20</v>
+      <c r="B92" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>24</v>
+      <c r="B93" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>15</v>
+      <c r="B94" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>4</v>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>38</v>
+      <c r="B96" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>20</v>
+      <c r="B97" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>4</v>
+      <c r="B98" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>38</v>
+      <c r="B99" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>15</v>
+      <c r="B101" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/excel/attendance.xlsx
+++ b/app/static/excel/attendance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my Project\KKL-Attendance-System\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kkl\Final Excel Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E0544A-189D-45FA-8AC3-0904B9F1ECEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94A28B1-F621-4A66-848A-E4D1C20F1069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="194">
   <si>
     <t>emp_id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>11:51</t>
   </si>
   <si>
-    <t>8G</t>
-  </si>
-  <si>
     <t>20:26</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>07:00</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>08:28</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>23:13</t>
   </si>
   <si>
-    <t>10A</t>
-  </si>
-  <si>
     <t>07:08</t>
   </si>
   <si>
@@ -99,18 +90,12 @@
     <t>18:21</t>
   </si>
   <si>
-    <t>12A</t>
-  </si>
-  <si>
     <t>17:01</t>
   </si>
   <si>
     <t>15:49</t>
   </si>
   <si>
-    <t>12B</t>
-  </si>
-  <si>
     <t>23:44</t>
   </si>
   <si>
@@ -619,6 +604,9 @@
   </si>
   <si>
     <t>05:39</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -628,7 +616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -650,6 +638,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -659,7 +653,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -682,11 +676,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -695,6 +719,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,10 +1131,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1117,686 +1147,686 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="B7" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="B13" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
+      <c r="B14" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
+      <c r="B17" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>15</v>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
+      <c r="B27" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>15</v>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>24</v>
+      <c r="B33" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
+      <c r="B34" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>24</v>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>15</v>
+      <c r="B37" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>15</v>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>15</v>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>24</v>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>20</v>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>27</v>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>24</v>
+      <c r="B47" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>24</v>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>20</v>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>24</v>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>27</v>
+      <c r="B51" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F51" s="3"/>
     </row>
@@ -1804,700 +1834,700 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>20</v>
+      <c r="B52" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
+      <c r="B53" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>27</v>
+      <c r="B54" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>20</v>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>27</v>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>20</v>
+      <c r="B57" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>20</v>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>20</v>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>38</v>
+      <c r="B60" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>24</v>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>38</v>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>24</v>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>4</v>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>38</v>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>27</v>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>10</v>
+      <c r="B67" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
+      <c r="B68" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>4</v>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>20</v>
+      <c r="B71" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>20</v>
+      <c r="B72" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>20</v>
+      <c r="B73" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>7</v>
+      <c r="B74" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>15</v>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>10</v>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>24</v>
+      <c r="B77" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>4</v>
+      <c r="B78" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>20</v>
+      <c r="B79" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>27</v>
+      <c r="B80" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>20</v>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>24</v>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>10</v>
+      <c r="B83" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>10</v>
+      <c r="B84" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>27</v>
+      <c r="B85" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>15</v>
+      <c r="B86" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>4</v>
+      <c r="B87" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>15</v>
+      <c r="B88" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>27</v>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>4</v>
+      <c r="B90" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
+      <c r="B91" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>20</v>
+      <c r="B92" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>24</v>
+      <c r="B93" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>15</v>
+      <c r="B94" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>4</v>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>38</v>
+      <c r="B96" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>20</v>
+      <c r="B97" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>4</v>
+      <c r="B98" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D98" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>38</v>
+      <c r="B99" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>15</v>
+      <c r="B101" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/excel/attendance.xlsx
+++ b/app/static/excel/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kkl\Final Excel Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94A28B1-F621-4A66-848A-E4D1C20F1069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CEF644-F9C5-4DDD-BB4D-A6ECDA9E4A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="193">
   <si>
     <t>emp_id</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>23:37</t>
-  </si>
-  <si>
-    <t>8B</t>
   </si>
   <si>
     <t>23:45</t>
@@ -634,15 +631,16 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -653,7 +651,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -676,55 +674,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD3D3D3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD3D3D3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD3D3D3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD3D3D3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD3D3D3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD3D3D3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,7 +1073,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+      <selection activeCell="B25" sqref="B25:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,7 +1082,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1129,12 +1092,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1143,7 +1106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1157,7 +1120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1171,7 +1134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1185,12 +1148,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1199,12 +1162,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1213,12 +1176,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1227,7 +1190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1241,7 +1204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1255,12 +1218,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -1269,12 +1232,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1283,12 +1246,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1297,12 +1260,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1311,7 +1274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1325,7 +1288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1333,27 +1296,27 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1361,13 +1324,13 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1375,27 +1338,27 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1403,13 +1366,13 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1417,13 +1380,13 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1431,13 +1394,13 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1445,13 +1408,13 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
         <v>50</v>
       </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1459,13 +1422,13 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1473,41 +1436,41 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1515,13 +1478,13 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
         <v>60</v>
       </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1529,69 +1492,69 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>33</v>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1599,13 +1562,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="D35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1613,27 +1576,27 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
         <v>73</v>
       </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1641,13 +1604,13 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
         <v>77</v>
       </c>
-      <c r="D38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1655,27 +1618,27 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
         <v>79</v>
       </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
         <v>81</v>
       </c>
-      <c r="D40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1683,13 +1646,13 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1697,13 +1660,13 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
         <v>85</v>
       </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1711,13 +1674,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
         <v>87</v>
       </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1725,13 +1688,13 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
         <v>89</v>
       </c>
-      <c r="D44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1739,13 +1702,13 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
         <v>91</v>
       </c>
-      <c r="D45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1753,41 +1716,41 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
         <v>95</v>
       </c>
-      <c r="D47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
         <v>97</v>
       </c>
-      <c r="D48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1795,13 +1758,13 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
         <v>99</v>
       </c>
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1809,70 +1772,70 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
         <v>101</v>
       </c>
-      <c r="D50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>33</v>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" t="s">
         <v>104</v>
       </c>
-      <c r="D52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
         <v>106</v>
       </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
         <v>108</v>
       </c>
-      <c r="D54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1880,13 +1843,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
         <v>110</v>
       </c>
-      <c r="D55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1894,27 +1857,27 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" t="s">
         <v>112</v>
       </c>
-      <c r="D56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" t="s">
         <v>114</v>
       </c>
-      <c r="D57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1922,13 +1885,13 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
         <v>116</v>
       </c>
-      <c r="D58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1936,27 +1899,27 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
         <v>118</v>
       </c>
-      <c r="D59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" t="s">
         <v>120</v>
       </c>
-      <c r="D60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1964,13 +1927,13 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
         <v>122</v>
       </c>
-      <c r="D61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1978,13 +1941,13 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1992,13 +1955,13 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
         <v>125</v>
       </c>
-      <c r="D63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2006,13 +1969,13 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
         <v>127</v>
       </c>
-      <c r="D64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2020,13 +1983,13 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" t="s">
         <v>129</v>
       </c>
-      <c r="D65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2034,41 +1997,41 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
         <v>131</v>
       </c>
-      <c r="D66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
         <v>133</v>
       </c>
-      <c r="D67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2076,13 +2039,13 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2090,69 +2053,69 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>33</v>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" t="s">
         <v>138</v>
       </c>
-      <c r="D71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
         <v>140</v>
       </c>
-      <c r="D72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" t="s">
         <v>142</v>
       </c>
-      <c r="D73" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" t="s">
         <v>144</v>
       </c>
-      <c r="D74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2160,13 +2123,13 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2174,27 +2137,27 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" t="s">
         <v>147</v>
       </c>
-      <c r="D76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" t="s">
         <v>149</v>
       </c>
-      <c r="D77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2202,13 +2165,13 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
         <v>151</v>
       </c>
-      <c r="D78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2216,27 +2179,27 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" t="s">
         <v>153</v>
       </c>
-      <c r="D79" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2244,13 +2207,13 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2258,13 +2221,13 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" t="s">
         <v>157</v>
       </c>
-      <c r="D82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2272,13 +2235,13 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" t="s">
         <v>159</v>
       </c>
-      <c r="D83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2286,13 +2249,13 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" t="s">
         <v>161</v>
       </c>
-      <c r="D84" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2300,13 +2263,13 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" t="s">
         <v>163</v>
       </c>
-      <c r="D85" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2314,41 +2277,41 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" t="s">
         <v>165</v>
       </c>
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" t="s">
         <v>167</v>
       </c>
-      <c r="D87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" t="s">
         <v>169</v>
       </c>
-      <c r="D88" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2356,13 +2319,13 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" t="s">
         <v>171</v>
       </c>
-      <c r="D89" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2370,69 +2333,69 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" t="s">
         <v>173</v>
       </c>
-      <c r="D90" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>33</v>
+      <c r="B91" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" t="s">
         <v>176</v>
       </c>
-      <c r="D92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" t="s">
         <v>179</v>
       </c>
-      <c r="D94" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2440,13 +2403,13 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D95" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2454,27 +2417,27 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" t="s">
         <v>182</v>
       </c>
-      <c r="D96" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" t="s">
         <v>184</v>
       </c>
-      <c r="D97" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2482,13 +2445,13 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" t="s">
         <v>186</v>
       </c>
-      <c r="D98" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2496,27 +2459,27 @@
         <v>9</v>
       </c>
       <c r="C99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
         <v>188</v>
       </c>
-      <c r="D99" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2524,14 +2487,14 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
+        <v>190</v>
+      </c>
+      <c r="D101" t="s">
         <v>191</v>
-      </c>
-      <c r="D101" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>